--- a/biology/Histoire de la zoologie et de la botanique/David_W._Wilton/David_W._Wilton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_W._Wilton/David_W._Wilton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Walter Wilton (Russie, 1873 - Chertsey, Surrey, 10 janvier 1940) est un explorateur polaire et zoologue britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir vécu quelques années dans le nord de la Russie, il est engagé en 1886 par Frederick G. Jackson comme naturaliste de son expédition (1894-1897) dans l'Archipel François-Joseph.
 De retour à Édimbourg, il travaille à l'Observatoire météorologique du Ben Nevis et participe à une expédition au Turkestan et dans le sud de la Chine.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Zoological log of Scotia, in William Speirs Bruce, Scottish National Antarctic Expedition. Report on the scientific results of the voyage of S.Y. Scotia during the years 1902, 1903 and 1904, vol.4, 1907
 The Temperatures, Specific Gravities, and Salinities of the Weddell Sea and of the North and South Atlantic Ocean (avec William Speirs Bruce et Andrew King), 1915</t>
